--- a/Companies/Distribution/NTPC Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
+++ b/Companies/Distribution/NTPC Ltd/Pruned_Excel/2_Dec14_Dec15.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '14</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '15</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '15</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '15</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '15</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '15</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '15</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '15</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '14</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>18,738.98</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>19,229.94</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17,010.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>17,748.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>17,358.98</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>17,748.23</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17,010.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>19,229.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>18,738.98</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>19229.94</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>17010.35</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>18017.296</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>119.11</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>191.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>126.74</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>191.73</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>119.11</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>191.73</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>82.63</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>120.97</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>18,858.09</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19,314.58</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17,092.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>17,939.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>17,485.72</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17,939.96</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17,092.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19,314.58</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>18,858.09</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>19314.58</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>17092.98</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>18138.266</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>12,119.63</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12,521.10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11,509.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>11,540.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>10,580.28</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>11,540.83</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11,509.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>12,521.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>12,119.63</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>12521.1</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>10580.28</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>11654.196</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>901.36</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>932.00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>891.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>899.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>868.42</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>899.18</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>891.12</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>932.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>901.36</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>932</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>868.42</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>898.4159999999999</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,253.41</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,391.19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,186.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,288.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,371.63</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,288.72</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,186.30</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,391.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,253.41</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1391.19</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1186.3</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1298.25</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,177.38</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,212.39</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,161.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,384.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,233.38</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,384.57</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,161.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,212.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,177.38</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1384.57</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1161.37</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1233.818</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>3,406.31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,257.90</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,345.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,826.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,432.01</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,826.66</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,345.05</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,257.90</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3,406.31</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>3432.01</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2345.05</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3053.586</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>481.28</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>571.79</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>240.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>278.20</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>238.96</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>278.20</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>240.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>571.79</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>481.28</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>571.79</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>238.96</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>362.232</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>3,887.59</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,829.69</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2,585.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3,104.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>3,670.97</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>3,104.86</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2,585.98</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,829.69</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3,887.59</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>3887.59</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>2585.98</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>3415.818</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>700.81</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>707.49</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>751.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>826.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>842.43</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>826.52</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>751.49</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>707.49</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>700.81</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>842.4299999999999</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>700.8099999999999</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>765.7479999999999</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,186.78</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,122.20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,834.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2,278.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2,828.54</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2,278.34</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,834.49</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,122.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,186.78</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3186.78</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1834.49</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>2650.07</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>3,186.78</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>3,122.20</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1,834.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2,278.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>2,828.54</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2,278.34</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1,834.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3,122.20</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3,186.78</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>3186.78</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>1834.49</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2650.07</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>112.78</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>178.17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-421.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-726.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>121.34</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-726.55</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-421.89</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>178.17</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>112.78</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>178.17</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>-726.55</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>-147.23</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>3,074.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2,944.03</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2,256.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3,004.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>2,707.20</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3,004.89</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2,256.38</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2,944.03</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3,074.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>3074</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>2256.38</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>2797.3</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>-38.43</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>34.34</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20.12</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>34.34</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-38.43</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>5.343333333333335</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>3,074.00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2,944.03</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2,276.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3,039.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>2,668.77</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3,039.23</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2,276.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2,944.03</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3,074.00</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>3074</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>2276.5</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>2800.506</v>
       </c>
     </row>
     <row r="21">
@@ -1231,15 +1055,6 @@
         <is>
           <t>8,245.46</t>
         </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>8245.459999999999</v>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>3.23</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>3.396</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>3.23</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>3.396</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>3.23</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>3.396</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>3.23</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>3.396</v>
       </c>
     </row>
     <row r="30"/>
@@ -1438,12 +1217,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>206.48</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>206.48</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1453,22 +1232,13 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>206.48</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>206.48</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>206.48</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>206.48</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>206.48</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -1479,12 +1249,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>25.04</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>25.04</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1494,22 +1264,13 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>25.04</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>25.04</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="34"/>
@@ -1544,12 +1305,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>618.06</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>618.06</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1559,22 +1320,13 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>618.06</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>618.06</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>618.0599999999999</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>618.0599999999999</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>618.0599999999999</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1585,12 +1337,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1600,22 +1352,13 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>100</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -1626,12 +1369,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1641,22 +1384,13 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>74.96</t>
+          <t>--</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>74.96</t>
-        </is>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>74.95999999999999</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>74.95999999999999</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>74.95999999999999</v>
+          <t>--</t>
+        </is>
       </c>
     </row>
   </sheetData>
